--- a/Bundle to put on website and Facebook Tech Theatre Educators/Tutorial steps2.xlsx
+++ b/Bundle to put on website and Facebook Tech Theatre Educators/Tutorial steps2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0b02e19b642fa45/Documents/GitHub/theatre-cue-player/Bundle to put on website and Facebook Tech Theatre Educators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{481E1033-9789-4194-B3C4-F267ADFFDFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{481E1033-9789-4194-B3C4-F267ADFFDFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA4D5931-31F7-4B8E-83B9-1CD8F0089998}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7D308E7B-8BD5-4DD5-B2C5-BFC6817EF177}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="123">
   <si>
     <t>Step_Number</t>
   </si>
@@ -53,24 +53,12 @@
     <t>User_Action</t>
   </si>
   <si>
-    <t>Auto_Advance_Seconds</t>
-  </si>
-  <si>
-    <t>Error_Message</t>
-  </si>
-  <si>
-    <t>Skip_Condition</t>
-  </si>
-  <si>
     <t>Begin Tutorial</t>
   </si>
   <si>
     <t>Tutorial Button</t>
   </si>
   <si>
-    <t>Please click the Tutorial button to begin</t>
-  </si>
-  <si>
     <t>Load Show Folder</t>
   </si>
   <si>
@@ -344,12 +332,6 @@
     <t>Set Pan</t>
   </si>
   <si>
-    <t>Set button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Theatre Cue Player, a sound that plays only on the left speaker is numbered -100. A sound that plays equally on both speakers is set to 0. And a sound that plays only on the right speaker is 100.\n\nYou can type in a number in the box or press the shortcut button "-100 = all to the Left".  </t>
-  </si>
-  <si>
     <t>click_element - either the Set button or the "-100 = all to the Left" button</t>
   </si>
   <si>
@@ -368,15 +350,9 @@
     <t>Add Hot Key</t>
   </si>
   <si>
-    <t>Shift-F2</t>
-  </si>
-  <si>
     <t>Let's make that sound a hotkey. Sometimes you have a sound that needs to play based on stage action and not necessarily in order. Hot keys are great for that. \n\n Press and hold Shift, then press F2</t>
   </si>
   <si>
-    <t>press shift-f2</t>
-  </si>
-  <si>
     <t>Assign Hot Key</t>
   </si>
   <si>
@@ -414,6 +390,21 @@
   </si>
   <si>
     <t>You've made it through the tutorial. We've hit the major elements. Please explore the parts we didn't cover, like Auto Continue, Delay, Loops, and Renumber Cues. \n\n Click Next to end the tutorial.</t>
+  </si>
+  <si>
+    <t>"-100 = all to the Left" button</t>
+  </si>
+  <si>
+    <t>In Theatre Cue Player, a sound that plays only on the left speaker is numbered -100. A sound that plays equally on both speakers is set to 0. And a sound that plays only on the right speaker is 100.\n\nYou can type in a number in the box or press the shortcut button "-100 = all to the Left".  For this tutorial, click the "-100 = all to the Left" button.</t>
+  </si>
+  <si>
+    <t>keyboard_combo</t>
+  </si>
+  <si>
+    <t>hotkey_assigned</t>
+  </si>
+  <si>
+    <t>document (whole page)</t>
   </si>
 </sst>
 </file>
@@ -466,6 +457,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -785,25 +780,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEB2BEB-31B4-4569-89FB-5D8801779D3A}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="68.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="108.140625" customWidth="1"/>
     <col min="6" max="6" width="38.42578125" customWidth="1"/>
     <col min="7" max="7" width="34.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -823,324 +816,312 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>1+A2</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A7" si="0">1+A3</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A27" si="0">1+A3</f>
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
       <c r="F11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1148,19 +1129,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
         <v>55</v>
       </c>
-      <c r="E17" t="s">
-        <v>59</v>
-      </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1168,19 +1149,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1188,19 +1169,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1208,16 +1189,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1225,19 +1206,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1245,19 +1226,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1265,19 +1246,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1285,19 +1266,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1305,19 +1286,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1325,19 +1306,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1345,19 +1326,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1365,19 +1346,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1385,19 +1366,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1405,19 +1386,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1425,19 +1406,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
         <v>95</v>
       </c>
-      <c r="C31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" t="s">
-        <v>99</v>
-      </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1445,199 +1426,202 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F36" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="G36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
